--- a/biology/Zoologie/Acidose_ruminale/Acidose_ruminale.xlsx
+++ b/biology/Zoologie/Acidose_ruminale/Acidose_ruminale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acidose du rumen
 L'acidose ruminale, ou acidose du rumen, est un trouble de l'équilibre acido-basique désignant un état pathologique dû à une baisse du pH du rumen qui devient inférieur à la normale et donc acide (par opposition à l'alcalose, liée à une hausse du pH du sang). L’environnement du rumen devient trop acide et la flore du rumen, qui est responsable de la dégradation de la structure (fibres), meurt ou ne fonctionne plus correctement, ce qui entraîne un excès prolongé d’acides gras volatils dans le rumen. Comme ces acides gras fournissent à la vache 70 % de son apport énergétique, ils sont extrêmement importants. Toutefois, lorsque la quantité d’acides gras dans le rumen dépasse la capacité d’absorption, le pH diminue et l’acidification du rumen apparaît. Ce trouble métabolique est bien connu chez les ruminants, et notamment chez la vache laitière. On distingue différents types d'acidose : aigüe ou suraigüe, subaigüe et latente.
@@ -512,7 +524,9 @@
           <t>Métrologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acidose correspond à une acidité accrue du pH du rumen. Généralement, on considère qu'il y a acidose quand le pH naturel se situe en dessous de 6 pendant au moins 4 heures (son opposé, l'alcalose, se produit à un pH supérieur à 7,2). Il faut une analyse gazeuse du sang artériel et d'autres tests pour déterminer les causes principales du phénomène.
 </t>
@@ -543,7 +557,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Plusieurs indices ou alertes permettent de repérer un cas d’acidose :
 la baisse de la production laitière ;
@@ -581,7 +597,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe différentes causes qui favorisent cette acidification mais deux principales sont les plus fréquentes. La première est la carence du pouvoir tampon, due à un manque de fibres, particulièrement longues, dans la ration. Le pouvoir tampon correspond aux substances présentes dans la salive, notamment le bicarbonate de sodium. La salive est produite lors de la mastication en plus ou moins grande en fonction de la granulométrie et de la teneur en fibre de la ration.
 La deuxième est l’excès de fermentescibilité, qui est lié à la teneur importante en sucres, amidons fermentescibles (blé, orge…), et pectine (pulpes d’agrumes, betteraves…). C’est une question de quantité distribuée et de rapidité de dégradation des aliments. 
@@ -619,7 +637,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux principales solutions de traitement : l’apport de bicarbonate de sodium et les levures.
 Le bicarbonate de sodium permet de limiter ponctuellement la baisse du pH et s’utilise en cure à raison de 200 à 250 g par vache et par jour durant cinq jours.  Au-delà, cela peut entraîner une baisse de l’ingestion. Ce traitement est efficace sur les rations acidogènes mais inutile sur des rations ne présentant pas de risques. À ne pas oublier que son apport doit être accompagné de la modification de la ration, favorablement à la rumination. Il peut également être utilisé en accompagnement lors d’une transition rapide exceptionnelle.
